--- a/data/trans_dic/P34_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P34_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente</t>
+          <t>Población que fuma diariamente (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,51%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>14,53%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,68%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,64%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,35%</t>
+          <t>15,48%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13,91%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>18,9%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>13,91%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,74; 34,18</t>
+          <t>9,53; 36,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,73; 29,13</t>
+          <t>3,75; 32,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,33; 34,58</t>
+          <t>8,42; 41,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,82; 30,53</t>
+          <t>7,61; 36,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,38; 36,67</t>
+          <t>2,61; 23,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,35; 43,61</t>
+          <t>4,87; 26,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,73; 28,49</t>
+          <t>6,91; 29,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,73; 27,61</t>
+          <t>2,2; 20,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,29; 32,3</t>
+          <t>8,47; 24,64</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7,0; 23,94</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>10,42; 30,94</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6,58; 23,99</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
+          <t>23,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>24,57%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>22,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>36,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>23,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,54%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>21,4%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>23,86%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>22,75%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>30,07%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,31; 40,32</t>
+          <t>10,24; 41,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,64; 44,72</t>
+          <t>10,68; 41,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,59; 40,7</t>
+          <t>8,3; 39,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,29; 26,48</t>
+          <t>15,28; 62,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,88; 29,07</t>
+          <t>10,62; 32,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,61; 31,62</t>
+          <t>12,8; 36,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,14; 30,94</t>
+          <t>13,6; 37,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,37; 34,91</t>
+          <t>11,18; 35,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,4; 33,8</t>
+          <t>13,44; 31,11</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14,95; 32,68</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>13,48; 32,33</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>17,57; 47,17</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>28,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>30,43%</t>
+          <t>28,62%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28,8%</t>
+          <t>26,04%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,05%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>24,35%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>23,4%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>20,4%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>17,79%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,57; 34,37</t>
+          <t>18,47; 42,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,17; 41,68</t>
+          <t>17,96; 41,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,94; 40,81</t>
+          <t>15,28; 39,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,47; 31,59</t>
+          <t>9,43; 31,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,34; 31,56</t>
+          <t>15,22; 31,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,96; 29,75</t>
+          <t>13,47; 29,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,53; 30,12</t>
+          <t>9,96; 24,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,45; 33,39</t>
+          <t>11,08; 28,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,19; 32,74</t>
+          <t>18,14; 31,9</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>17,43; 30,69</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>14,06; 28,15</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12,01; 25,43</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>22,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,14%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>23,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,67%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>22,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>21,06%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>19,98%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>22,81%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>17,59%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,85; 25,26</t>
+          <t>11,28; 28,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,21; 26,11</t>
+          <t>11,52; 28,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,19; 29,34</t>
+          <t>14,81; 31,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,21; 29,21</t>
+          <t>6,02; 21,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,55; 28,02</t>
+          <t>15,95; 32,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,91; 30,03</t>
+          <t>13,12; 29,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,79; 25,53</t>
+          <t>15,35; 31,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,41; 25,47</t>
+          <t>15,11; 31,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,57; 27,39</t>
+          <t>15,49; 27,15</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>14,46; 26,16</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>16,92; 28,87</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>12,92; 23,7</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>27,22%</t>
+          <t>22,18%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>25,22%</t>
+          <t>19,25%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>25,8%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>21,64%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>25,65%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>23,3%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20,38%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>19,17%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>17,7%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,03; 35,99</t>
+          <t>12,9; 34,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,87; 34,18</t>
+          <t>10,84; 30,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,87; 35,18</t>
+          <t>10,72; 29,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,88; 33,07</t>
+          <t>8,19; 26,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,41; 30,12</t>
+          <t>14,97; 37,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,99; 29,64</t>
+          <t>12,02; 34,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,12; 32,12</t>
+          <t>10,99; 33,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,79; 29,71</t>
+          <t>10,26; 34,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,67; 29,41</t>
+          <t>16,83; 32,36</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>13,92; 28,49</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>12,47; 27,25</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>11,62; 26,62</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>5,43%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>8,25%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>10,09%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>9,62%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,45; 13,57</t>
+          <t>0,0; 14,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,78; 15,9</t>
+          <t>0,0; 14,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,99; 17,77</t>
+          <t>0,0; 13,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,61</t>
+          <t>2,75; 24,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,07; 11,11</t>
+          <t>1,86; 15,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,48; 11,93</t>
+          <t>4,21; 24,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,25; 8,77</t>
+          <t>6,69; 30,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,73; 11,1</t>
+          <t>2,22; 23,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,11; 11,88</t>
+          <t>2,05; 12,08</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3,45; 16,6</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>4,82; 18,55</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>4,69; 18,13</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>19,46%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>19,16%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>19,62%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>18,13%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,17; 25,41</t>
+          <t>16,22; 25,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,09; 27,26</t>
+          <t>15,86; 24,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,74; 27,14</t>
+          <t>15,12; 25,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,93; 22,11</t>
+          <t>14,62; 27,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,52; 22,88</t>
+          <t>14,92; 22,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,76; 23,91</t>
+          <t>15,29; 23,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,68; 22,41</t>
+          <t>15,59; 23,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,83; 23,85</t>
+          <t>12,99; 21,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,88; 24,33</t>
+          <t>16,7; 22,91</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>16,05; 22,04</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>16,53; 22,97</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>14,98; 22,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que fuma diariamente (tasa de respuesta: 99,89%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>21479</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>15362</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>27591</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>28005</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15824</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>16050</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>19665</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12526</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>37304</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>31412</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>47255</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>40531</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10200; 39251</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3967; 33913</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10736; 52863</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>11098; 53716</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3494; 31322</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5845; 32111</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8461; 35924</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3200; 29479</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20420; 59396</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>15802; 54050</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>26064; 77387</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19155; 69881</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>39021</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>35229</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>34261</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>83724</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>32417</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>29225</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>29569</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>33575</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>71438</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>64454</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>63831</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>117299</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>17275; 69514</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>15309; 59803</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>12798; 60181</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>34786; 142683</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17529; 53513</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>16217; 45680</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>17179; 47657</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>18159; 57125</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>44867; 103875</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>40384; 88275</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>37814; 90714</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>68553; 183995</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>46312</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>38451</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>35010</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>32464</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>57456</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>41967</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>32902</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>42266</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>103769</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>80418</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>67912</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>74730</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>29924; 68357</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>24130; 56304</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20540; 52652</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17005; 56795</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>40197; 82074</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>28207; 61029</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19774; 49058</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>26548; 67273</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>77308; 135954</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>59897; 105488</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>46808; 93713</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>50452; 106813</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>34968</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>30649</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>35453</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>25805</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>50331</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>38695</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>39520</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>46672</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>85299</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>69344</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>74973</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>72477</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>21064; 52525</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>18578; 46608</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>23141; 48907</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>12135; 43246</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>34835; 70326</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>24400; 53980</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>26480; 53842</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>31833; 65348</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>62758; 109956</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>50201; 90816</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>55610; 94900</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>53253; 97652</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>34909</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>25422</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>22284</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>23629</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>28858</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>20612</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>19090</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>27994</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>63768</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>46034</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>41374</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>51622</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>20309; 54150</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>14320; 40275</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>13210; 36610</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>12667; 40870</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>17397; 43939</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>11278; 32234</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>10186; 30765</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>14063; 47086</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>46060; 88550</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>31444; 64361</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>26921; 58834</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>33887; 77659</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5262</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4003</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3787</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>14127</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8142</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>11882</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>16473</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>19095</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>13404</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>15885</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>20261</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>33223</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16145</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 12348</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 12593</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3792; 33792</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2566; 21782</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>4423; 25662</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>7397; 33459</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4604; 49532</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5072; 29840</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>6636; 31951</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>9675; 37242</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>16212; 62621</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>181952</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>149116</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>158386</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>207755</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>193028</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>158431</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>157220</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>182128</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>374980</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>307547</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>315606</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>389883</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>144571; 228493</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>121161; 190873</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>118820; 202322</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>153144; 286998</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>154452; 235737</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>128591; 195381</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>128350; 192147</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>143199; 232386</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>321729; 441421</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>257645; 353730</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>265997; 369497</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>322144; 487027</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>